--- a/solid waste 1.xlsx
+++ b/solid waste 1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ODL website\Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\ODL Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5568DC6D-8731-4CA2-B572-F43251D07F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAE2A647-38F1-4D52-A697-CD3251FCCE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DC2F7441-271E-456A-A926-B9368C531798}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4B283CED-63FF-433F-96C6-EF5B0EF34518}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,133 +25,179 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="48">
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>Uttarpradesh</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>Telengana</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Pondicheri</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>Nagaland</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Meghalaya</t>
+  </si>
+  <si>
+    <t>Manipur</t>
+  </si>
+  <si>
+    <t>M.P</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Lakshadweep</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>J&amp;K</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Approx 415.00</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Damn, Diu&amp; Dadra Nagar Haveli</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assam </t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>A&amp;N Island</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>2019-20</t>
+  </si>
+  <si>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>2016-17</t>
+  </si>
+  <si>
+    <t>2015-16</t>
+  </si>
+  <si>
+    <t>2014-15</t>
+  </si>
+  <si>
+    <t>2013-14</t>
+  </si>
+  <si>
+    <t>2012-13</t>
+  </si>
+  <si>
+    <t>2011-12</t>
+  </si>
   <si>
     <t>Estimated Plastic Waste Generation (TPA)</t>
   </si>
   <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>A&amp;N Island</t>
-  </si>
-  <si>
-    <t>Arunachal Pradesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assam </t>
-  </si>
-  <si>
-    <t>Bihar</t>
-  </si>
-  <si>
-    <t>Chhattisgarh</t>
-  </si>
-  <si>
-    <t>Goa</t>
-  </si>
-  <si>
-    <t>Approx 415.00</t>
-  </si>
-  <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
-    <t>Haryana</t>
-  </si>
-  <si>
-    <t>Himachal Pradesh</t>
-  </si>
-  <si>
-    <t>J&amp;K</t>
-  </si>
-  <si>
-    <t>Jharkhand</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>M.P</t>
-  </si>
-  <si>
-    <t>Manipur</t>
-  </si>
-  <si>
-    <t>Meghalaya</t>
-  </si>
-  <si>
-    <t>Mizoram</t>
-  </si>
-  <si>
-    <t>Nagaland</t>
-  </si>
-  <si>
-    <t>Odisha</t>
-  </si>
-  <si>
-    <t>Punjab</t>
-  </si>
-  <si>
-    <t>Rajasthan</t>
-  </si>
-  <si>
-    <t>Sikkim</t>
-  </si>
-  <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>Tripura</t>
-  </si>
-  <si>
-    <t>U.P</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Lakshadweep</t>
-  </si>
-  <si>
-    <t>Puducherry</t>
-  </si>
-  <si>
-    <t>Uttarakhand</t>
-  </si>
-  <si>
-    <t>West Bengal</t>
-  </si>
-  <si>
-    <t>Approx 550 MT/ day</t>
-  </si>
-  <si>
-    <t>Chandigarh</t>
-  </si>
-  <si>
-    <t>Damn, Diu&amp; Dadra Nagar Haveli</t>
-  </si>
-  <si>
-    <t>State</t>
+    <t>States</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,9 +220,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,238 +547,1202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DE07E5-97F1-4410-B108-6F8C8FDB35A8}">
-  <dimension ref="A1:B35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3D25BB-A270-4488-9F84-4F66952CCB90}">
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" activeCellId="3" sqref="A39:XFD39 A40:XFD40 A41:XFD41 A38:XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    </row>
+    <row r="3" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1">
         <v>28888</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="1">
+        <v>243820</v>
+      </c>
+      <c r="D3" s="1">
+        <v>243820</v>
+      </c>
+      <c r="E3" s="1">
+        <v>128480</v>
+      </c>
+      <c r="F3" s="1">
+        <v>128480</v>
+      </c>
+      <c r="G3" s="1">
+        <v>82863</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>66314</v>
+      </c>
+      <c r="J3" s="1">
+        <v>46222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2555</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2737</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>365</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1850</v>
+      </c>
+      <c r="J4" s="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="F5" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3787.37</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1116</v>
+      </c>
+      <c r="D6" s="1">
+        <v>240</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>24010</v>
+      </c>
+      <c r="G6" s="1">
+        <v>24030</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>32277.87</v>
+      </c>
+      <c r="J6" s="1">
+        <v>24971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2280</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2280</v>
+      </c>
+      <c r="I7" s="1">
+        <v>68903.327999999994</v>
+      </c>
+      <c r="J7" s="1">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5548</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4964</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4818</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8383</v>
+      </c>
+      <c r="G8" s="1">
+        <v>21516.75</v>
+      </c>
+      <c r="H8" s="1">
+        <v>12775</v>
+      </c>
+      <c r="I8" s="1">
+        <v>11715.4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5840</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7300</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>32850</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1947.7</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>251850</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>232732</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>224810</v>
+      </c>
+      <c r="J11" s="1">
+        <v>230525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1642.5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>117.73</v>
+      </c>
+      <c r="E12" s="1">
+        <v>104</v>
+      </c>
+      <c r="F12" s="1">
+        <v>106</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>32580.52</v>
+      </c>
+      <c r="J12" s="1">
+        <v>26068</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>251796.65</v>
+      </c>
+      <c r="D13" s="1">
+        <v>251796.65</v>
+      </c>
+      <c r="E13" s="1">
+        <v>265568.2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>269294.88</v>
+      </c>
+      <c r="G13" s="1">
+        <v>271092</v>
+      </c>
+      <c r="H13" s="1">
+        <v>269808</v>
+      </c>
+      <c r="I13" s="1">
+        <v>356873</v>
+      </c>
+      <c r="J13" s="1">
+        <v>408201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>55480</v>
+      </c>
+      <c r="D14" s="1">
+        <v>50332.69</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>23369.09</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>68735.259999999995</v>
+      </c>
+      <c r="J14" s="1">
+        <v>147734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1">
         <v>202.67</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
+      <c r="C15" s="1">
+        <v>106.72</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2326.8000000000002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1004</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>255</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3672</v>
+      </c>
+      <c r="J15" s="1">
+        <v>13683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>11748</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4164.45</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6243.2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>27870</v>
+      </c>
+      <c r="I16" s="1">
+        <v>34367.370000000003</v>
+      </c>
+      <c r="J16" s="1">
+        <v>74826.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1">
         <v>16691.05</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>109500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>1045.24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>16196.51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>81030</v>
+      </c>
+      <c r="D17" s="1">
+        <v>75817.8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>35262.36</v>
+      </c>
+      <c r="F17" s="1">
+        <v>35853.519999999997</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>51454.53</v>
+      </c>
+      <c r="J17" s="1">
+        <v>43332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>77247</v>
+      </c>
+      <c r="D18" s="1">
+        <v>77247</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>129600</v>
+      </c>
+      <c r="G18" s="1">
+        <v>419600</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>272776</v>
+      </c>
+      <c r="J18" s="1">
+        <v>296380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>109500</v>
+      </c>
+      <c r="C19" s="1">
+        <v>50370</v>
+      </c>
+      <c r="D19" s="1">
+        <v>27.794</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>133316</v>
+      </c>
+      <c r="J19" s="1">
+        <v>131400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>148</v>
+      </c>
+      <c r="J20" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1045.24</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10950</v>
+      </c>
+      <c r="D21" s="1">
+        <v>587285</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>469098</v>
+      </c>
+      <c r="G21" s="1">
+        <v>21420.33</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>409630</v>
+      </c>
+      <c r="J21" s="1">
+        <v>443724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1">
+        <v>16887</v>
+      </c>
+      <c r="C22" s="1">
+        <v>23400</v>
+      </c>
+      <c r="D22" s="1">
+        <v>22973.95</v>
+      </c>
+      <c r="E22" s="1">
+        <v>27763.599999999999</v>
+      </c>
+      <c r="F22" s="1">
+        <v>30884.47</v>
+      </c>
+      <c r="G22" s="1">
+        <v>50457.07</v>
+      </c>
+      <c r="H22" s="1">
+        <v>61037</v>
+      </c>
+      <c r="I22" s="1">
+        <v>72327.39</v>
+      </c>
+      <c r="J22" s="1">
+        <v>121079</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4380</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5475</v>
+      </c>
+      <c r="E23" s="1">
+        <v>25</v>
+      </c>
+      <c r="F23" s="1">
+        <v>30</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>24</v>
+      </c>
+      <c r="I23" s="1">
+        <v>12453.8</v>
+      </c>
+      <c r="J23" s="1">
+        <v>8293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4599</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4015</v>
+      </c>
+      <c r="E24" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="F24" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="G24" s="1">
+        <v>13.265000000000001</v>
+      </c>
+      <c r="H24" s="1">
+        <v>15.096</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1263</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5043</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1682.5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45625</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45625</v>
+      </c>
+      <c r="F25" s="1">
+        <v>6396</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>13.305999999999999</v>
+      </c>
+      <c r="J25" s="1">
+        <v>7909</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>14052.5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>268.18</v>
+      </c>
+      <c r="J26" s="1">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>896.61800000000005</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1871.13</v>
+      </c>
+      <c r="F27" s="1">
+        <v>27859.17</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6890.8050000000003</v>
+      </c>
+      <c r="H27" s="1">
+        <v>12092.205</v>
+      </c>
+      <c r="I27" s="1">
+        <v>90138.98</v>
+      </c>
+      <c r="J27" s="1">
+        <v>45339.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4927.5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>16425</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>9252.25</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>8433</v>
+      </c>
+      <c r="J28" s="1">
+        <v>11753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1">
         <v>31000</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>377.76499999999999</v>
+      </c>
+      <c r="E29" s="1">
+        <v>43282.27</v>
+      </c>
+      <c r="F29" s="1">
+        <v>48073.22</v>
+      </c>
+      <c r="G29" s="1">
+        <v>163423.4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>54066.1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>119414.64</v>
+      </c>
+      <c r="J29" s="1">
+        <v>92890</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>104704.383</v>
+      </c>
+      <c r="J30" s="1">
+        <v>51966</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1668.05</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>102.7</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>5.66</v>
+      </c>
+      <c r="J31" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>205724.95</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>150323.47</v>
+      </c>
+      <c r="G32" s="1">
+        <v>79114.792000000001</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>401091</v>
+      </c>
+      <c r="J32" s="1">
+        <v>431472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>243820</v>
+      </c>
+      <c r="E33" s="1">
+        <v>123005</v>
+      </c>
+      <c r="F33" s="1">
+        <v>120961</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>183014.65</v>
+      </c>
+      <c r="J33" s="1">
+        <v>233655</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1">
         <v>182.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="C34" s="1">
+        <v>10950</v>
+      </c>
+      <c r="D34" s="1">
+        <v>11680</v>
+      </c>
+      <c r="E34" s="1">
+        <v>33</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="H34" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="I34" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="J34" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>55483</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>93597.97</v>
+      </c>
+      <c r="F35" s="1">
+        <v>130777.39</v>
+      </c>
+      <c r="G35" s="1">
+        <v>152492.64449999999</v>
+      </c>
+      <c r="H35" s="1">
+        <v>206733.45050000001</v>
+      </c>
+      <c r="I35" s="1">
+        <v>254401.8</v>
+      </c>
+      <c r="J35" s="1">
+        <v>161148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3016.3</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>31093</v>
+      </c>
+      <c r="J36" s="1">
+        <v>25203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>200750</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>300236.12</v>
+      </c>
+      <c r="J37" s="1">
+        <v>300236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C39" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/solid waste 1.xlsx
+++ b/solid waste 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\ODL Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAE2A647-38F1-4D52-A697-CD3251FCCE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1A4A94-21AF-4CC9-8633-E6829A514FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4B283CED-63FF-433F-96C6-EF5B0EF34518}"/>
   </bookViews>
@@ -548,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3D25BB-A270-4488-9F84-4F66952CCB90}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" activeCellId="3" sqref="A39:XFD39 A40:XFD40 A41:XFD41 A38:XFD38"/>
+      <selection activeCell="A42" activeCellId="4" sqref="A38:XFD38 A40:XFD40 A39:XFD39 A41:XFD41 A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1734,9 +1734,6 @@
         <v>300236</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C39" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
